--- a/biology/Zoologie/Firouzophrynus/Firouzophrynus.xlsx
+++ b/biology/Zoologie/Firouzophrynus/Firouzophrynus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Firouzophrynus est un genre d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Firouzophrynus est un genre d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces espèces se rencontrent au Moyen-Orient et en Asie du Sud[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces espèces se rencontrent au Moyen-Orient et en Asie du Sud,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (9 mai 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (9 mai 2024) :
 Firouzophrynus dhufarensis (Parker, 1931)
 Firouzophrynus hololius' (Günther, 1876)
 Firouzophrynus olivaceus (Blanford, 1874)
@@ -577,13 +593,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Firouzophrynus a été créé en 2020 par les herpétologistes iraniens Barbod Safaei-Mahroo (d) et Hanyeh Ghaffari (d)[1].
-Étymologie
-Ce genre est nommé en l'honneur de Eskandar Firouz (en), fondateur du département de l'environnement en Iran, mort en 2020[4].
-Publication originale
-(en) Barbod Safaei-Mahroo et Hanyeh Ghaffari, « The Complete Guide to Amphibians of Iran: Biology, Ecology, and Conservation », University of Kurdistan Press,‎ juillet 2020, p. 135-137, 156-161 (lire en ligne )</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Firouzophrynus a été créé en 2020 par les herpétologistes iraniens Barbod Safaei-Mahroo (d) et Hanyeh Ghaffari (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Firouzophrynus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Firouzophrynus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Eskandar Firouz (en), fondateur du département de l'environnement en Iran, mort en 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Firouzophrynus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Firouzophrynus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Barbod Safaei-Mahroo et Hanyeh Ghaffari, « The Complete Guide to Amphibians of Iran: Biology, Ecology, and Conservation », University of Kurdistan Press,‎ juillet 2020, p. 135-137, 156-161 (lire en ligne )</t>
         </is>
       </c>
     </row>
